--- a/clean/unit/clean_unit/08079B.xlsx
+++ b/clean/unit/clean_unit/08079B.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D3">
@@ -432,7 +432,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D4">
@@ -587,7 +587,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D12">
@@ -687,7 +687,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D17">
@@ -725,11 +725,6 @@
           <t>mg/L(μg/mL)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>g/l</t>
-        </is>
-      </c>
       <c r="D19">
         <v>8325</v>
       </c>
@@ -747,7 +742,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>g/l;;;ug/l</t>
+          <t>ug/l</t>
         </is>
       </c>
       <c r="D20">
@@ -935,11 +930,6 @@
           <t>mg/L (μg/mL)</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>g/l</t>
-        </is>
-      </c>
       <c r="D30">
         <v>1630</v>
       </c>
@@ -977,7 +967,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D32">
@@ -1052,7 +1042,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D36">
@@ -1367,7 +1357,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D53">

--- a/clean/unit/clean_unit/08079B.xlsx
+++ b/clean/unit/clean_unit/08079B.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
